--- a/POO/POO.xlsx
+++ b/POO/POO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="LIVROS" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -79,13 +79,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,27 +453,27 @@
   </sheetPr>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="27.28515625" customWidth="1" style="4" min="1" max="1"/>
-    <col width="17.85546875" customWidth="1" style="4" min="2" max="2"/>
-    <col width="19" customWidth="1" style="4" min="3" max="3"/>
-    <col width="19.7109375" customWidth="1" style="4" min="4" max="4"/>
-    <col width="19.140625" customWidth="1" style="4" min="5" max="5"/>
+    <col width="34.140625" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="17.85546875" customWidth="1" style="5" min="2" max="2"/>
+    <col width="19" customWidth="1" style="5" min="3" max="3"/>
+    <col width="19.7109375" customWidth="1" style="5" min="4" max="4"/>
+    <col width="19.140625" customWidth="1" style="5" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="33.75" customHeight="1" s="5">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>BANCO DE DADOS - LIVROS</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="4">
+    <row r="2" ht="15.75" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>TÍTULO</t>
@@ -503,22 +503,22 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Harry Potter</t>
+          <t>O SENHOR DOS ANÉIS</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>JK</t>
+          <t>J.R.R. TOLKIEN</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Ação</t>
+          <t xml:space="preserve">FANTASIA </t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Fisico</t>
+          <t>FISICO</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -528,51 +528,49 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>1984</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>GEORGE ORWELL</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>FICÇÃO CIENTÍFICA</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>FISICO</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>disponível</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>O Senhor dos Anéis</t>
+          <t>ORGULHO E PRECONCEITO</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>J.R.R. Tolkien</t>
+          <t xml:space="preserve">JANE AUSTEN </t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Fantasia</t>
+          <t>ROMANCE</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Fisico</t>
+          <t>FISICO</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -582,74 +580,274 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>HARRY POTTER E A PEDRA FILOSOFAL</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>J.K. ROWLING</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FANTASIA </t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>FISICO</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>disponível</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>A METAMORFOSE</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>FRANZ KAFKA</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>FICÇÃO EXISTENCIALISTA</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>DIGITAL</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>disponível</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>CEM ANOS DE SOLIDÃO</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>GABRIEL GARCÍA MÁRQUEZ</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REALISMO </t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>FISICO</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>disponível</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>DOM QUIXOTE</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MIGUEL DE CERVANTES</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>ROMANCE</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>DIGITAL</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>disponível</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>A REVOLUÇÃO DOS BICHOS</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>GEORGE ORWELL</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>FICÇÃO POLÍTICA</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>DIGITAL</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>disponível</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>A REVOLTA DE ATLAS</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>AYN RAND</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>FICÇÃO FILOSÓFICA</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>DIGITAL</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>disponível</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>HARRY POTTER E A CAMERA SECRETA</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>J.K. ROWLING</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FANTASIA </t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>FISICO</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>disponível</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>A REVOLTA DE ATLAS</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>AYN RAND</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>FICÇÃO FILOSÓFICA</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>DIGITAL</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>disponível</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>HARRY POTTER E A CAMERA SECRETA</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>J.K. ROWLING</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FANTASIA </t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>FISICO</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>disponível</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Digital</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>disponível</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
@@ -1176,29 +1374,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="14.5703125" customWidth="1" style="4" min="1" max="1"/>
-    <col width="36.7109375" customWidth="1" style="4" min="2" max="2"/>
-    <col width="32.5703125" customWidth="1" style="4" min="3" max="3"/>
-    <col width="25.140625" customWidth="1" style="4" min="4" max="4"/>
-    <col width="23" customWidth="1" style="4" min="5" max="5"/>
+    <col width="14.5703125" customWidth="1" style="5" min="1" max="1"/>
+    <col width="36.7109375" customWidth="1" style="5" min="2" max="2"/>
+    <col width="32.5703125" customWidth="1" style="5" min="3" max="3"/>
+    <col width="25.140625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23" customWidth="1" style="5" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="33.75" customHeight="1" s="5">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>BANCO DE DADOS - USUÁRIO</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="4">
+    <row r="2" ht="15.75" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>ID</t>
@@ -1226,73 +1424,77 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>ADMIN</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>ADMIN</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>ADMIN</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>admin</t>
         </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Rodrigo Nunes</t>
+          <t>rodrigo</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>451.152.548-08</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>123321</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>comum</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>João da Silva</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12345678900</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>senha123</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>comum</t>
+          <t>admin</t>
         </is>
       </c>
     </row>
@@ -1890,13 +2092,6 @@
       <c r="C90" s="2" t="n"/>
       <c r="D90" s="2" t="n"/>
       <c r="E90" s="2" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n"/>
-      <c r="B91" s="2" t="n"/>
-      <c r="C91" s="2" t="n"/>
-      <c r="D91" s="2" t="n"/>
-      <c r="E91" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1915,26 +2110,26 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="42" customWidth="1" style="4" min="1" max="1"/>
-    <col width="18.28515625" customWidth="1" style="4" min="2" max="2"/>
-    <col width="15.42578125" customWidth="1" style="4" min="3" max="3"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="26.42578125" customWidth="1" style="4" min="5" max="5"/>
+    <col width="42" customWidth="1" style="5" min="1" max="1"/>
+    <col width="18.28515625" customWidth="1" style="5" min="2" max="2"/>
+    <col width="15.42578125" customWidth="1" style="5" min="3" max="3"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="26.42578125" customWidth="1" style="5" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="33.75" customHeight="1" s="5">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>BANCO DE DADOS - RESERVA</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="4">
+    <row r="2" ht="15.75" customHeight="1" s="5">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>TITULO</t>
@@ -1964,50 +2159,30 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>A REVOLTA DE ATLAS</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+          <t>DIGITAL</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>45448</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>45463</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>O Senhor dos Anéis</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Fisico</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>45447</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>45447</v>
-      </c>
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
